--- a/ok/analysis.xlsx
+++ b/ok/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Python\covid\ok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A5E92F-5FD4-42B6-9096-343289345ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0959AEB-8BC9-4395-9882-94261532A0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38265" yWindow="2820" windowWidth="25470" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2835" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,10 +214,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$134</c:f>
+              <c:f>Sheet1!$A$2:$A$135</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="133"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>44019</c:v>
                 </c:pt>
@@ -616,16 +616,19 @@
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$2:$T$134</c:f>
+              <c:f>Sheet1!$T$2:$T$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="133"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="7">
                   <c:v>24.578013821697958</c:v>
                 </c:pt>
@@ -1003,6 +1006,9 @@
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>59.035211548656946</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>60.278287669186476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,10 +1048,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$134</c:f>
+              <c:f>Sheet1!$A$2:$A$135</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="133"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>44019</c:v>
                 </c:pt>
@@ -1444,16 +1450,19 @@
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$U$2:$U$134</c:f>
+              <c:f>Sheet1!$U$2:$U$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="133"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="7">
                   <c:v>28.629114099838695</c:v>
                 </c:pt>
@@ -1831,6 +1840,9 @@
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>48.124686201407954</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>47.608365113786483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,10 +1882,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$134</c:f>
+              <c:f>Sheet1!$A$2:$A$135</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="133"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>44019</c:v>
                 </c:pt>
@@ -2272,16 +2284,19 @@
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$2:$V$134</c:f>
+              <c:f>Sheet1!$V$2:$V$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="133"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="7">
                   <c:v>25.149536029951282</c:v>
                 </c:pt>
@@ -2659,6 +2674,9 @@
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>86.727008268234059</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>88.15301288848903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2698,10 +2716,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$134</c:f>
+              <c:f>Sheet1!$A$2:$A$135</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="133"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>44019</c:v>
                 </c:pt>
@@ -3100,16 +3118,19 @@
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$2:$W$134</c:f>
+              <c:f>Sheet1!$W$2:$W$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="133"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="7">
                   <c:v>14.302335919350286</c:v>
                 </c:pt>
@@ -3487,6 +3508,9 @@
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>78.276297936984676</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>79.242671985589439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3526,10 +3550,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$134</c:f>
+              <c:f>Sheet1!$A$2:$A$135</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="133"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>44019</c:v>
                 </c:pt>
@@ -3928,16 +3952,19 @@
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$2:$X$134</c:f>
+              <c:f>Sheet1!$X$2:$X$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="133"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="7">
                   <c:v>6.8163808993646562</c:v>
                 </c:pt>
@@ -4315,6 +4342,9 @@
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>73.418102603573487</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>74.128142280590637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8594,11 +8624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M87" sqref="M87"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z80" sqref="Z80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9031,7 +9061,7 @@
         <v>4347.5</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ref="C10:G10" si="10">AVERAGE(C11,C9)</f>
+        <f t="shared" ref="C10:F10" si="10">AVERAGE(C11,C9)</f>
         <v>3903.5</v>
       </c>
       <c r="D10" s="3">
@@ -9677,7 +9707,7 @@
         <v>5596</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" ref="C18:G18" si="17">AVERAGE(C19,C17)</f>
+        <f t="shared" ref="C18:F18" si="17">AVERAGE(C19,C17)</f>
         <v>4794.5</v>
       </c>
       <c r="D18" s="3">
@@ -9843,7 +9873,7 @@
         <v>5968</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ref="C20:G20" si="19">AVERAGE(C21,C19)</f>
+        <f t="shared" ref="C20:F20" si="19">AVERAGE(C21,C19)</f>
         <v>5074</v>
       </c>
       <c r="D20" s="3">
@@ -10169,7 +10199,7 @@
         <v>6825</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" ref="C24:G24" si="21">AVERAGE(C25,C23)</f>
+        <f t="shared" ref="C24:F24" si="21">AVERAGE(C25,C23)</f>
         <v>5799.5</v>
       </c>
       <c r="D24" s="3">
@@ -10335,7 +10365,7 @@
         <v>7221.5</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" ref="C26:G26" si="23">AVERAGE(C27,C25)</f>
+        <f t="shared" ref="C26:F26" si="23">AVERAGE(C27,C25)</f>
         <v>6063.5</v>
       </c>
       <c r="D26" s="3">
@@ -11541,7 +11571,7 @@
         <v>9421.5</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" ref="C41:G41" si="25">AVERAGE(C42,C40)</f>
+        <f t="shared" ref="C41:F41" si="25">AVERAGE(C42,C40)</f>
         <v>7689.5</v>
       </c>
       <c r="D41" s="3">
@@ -11867,7 +11897,7 @@
         <v>9825</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" ref="C45:G45" si="27">AVERAGE(C46,C44)</f>
+        <f t="shared" ref="C45:F45" si="27">AVERAGE(C46,C44)</f>
         <v>8012.5</v>
       </c>
       <c r="D45" s="3">
@@ -12433,7 +12463,7 @@
         <v>10642</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" ref="C52:E52" si="29">AVERAGE(C53,C51)</f>
+        <f t="shared" ref="C52:D52" si="29">AVERAGE(C53,C51)</f>
         <v>8660</v>
       </c>
       <c r="D52" s="3">
@@ -13159,7 +13189,7 @@
         <v>11494.5</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" ref="C61:G61" si="30">AVERAGE(C62,C60)</f>
+        <f t="shared" ref="C61:F61" si="30">AVERAGE(C62,C60)</f>
         <v>9489</v>
       </c>
       <c r="D61" s="3">
@@ -15245,7 +15275,7 @@
         <v>14826</v>
       </c>
       <c r="C87" s="3">
-        <f t="shared" ref="C87:G87" si="85">AVERAGE(C86,C88)</f>
+        <f t="shared" ref="C87:F87" si="85">AVERAGE(C86,C88)</f>
         <v>11598.5</v>
       </c>
       <c r="D87" s="3">
@@ -15571,7 +15601,7 @@
         <v>15292</v>
       </c>
       <c r="C91" s="3">
-        <f t="shared" ref="C91:G91" si="101">AVERAGE(C90,C92)</f>
+        <f t="shared" ref="C91:F91" si="101">AVERAGE(C90,C92)</f>
         <v>11946.5</v>
       </c>
       <c r="D91" s="3">
@@ -17177,7 +17207,7 @@
         <v>18350</v>
       </c>
       <c r="C111" s="3">
-        <f t="shared" ref="C111:G111" si="145">AVERAGE(C110,C112)</f>
+        <f t="shared" ref="C111:F111" si="145">AVERAGE(C110,C112)</f>
         <v>14124</v>
       </c>
       <c r="D111" s="3">
@@ -18463,7 +18493,7 @@
         <v>21720</v>
       </c>
       <c r="C127" s="3">
-        <f t="shared" ref="C127:G127" si="147">AVERAGE(C126,C128)</f>
+        <f t="shared" ref="C127:F127" si="147">AVERAGE(C126,C128)</f>
         <v>16088.5</v>
       </c>
       <c r="D127" s="3">
@@ -19098,6 +19128,86 @@
       <c r="X134">
         <f t="shared" si="162"/>
         <v>73.418102603573487</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B135">
+        <v>24606</v>
+      </c>
+      <c r="C135">
+        <v>17523</v>
+      </c>
+      <c r="D135">
+        <v>5500</v>
+      </c>
+      <c r="E135">
+        <v>1665</v>
+      </c>
+      <c r="F135">
+        <v>2842</v>
+      </c>
+      <c r="H135">
+        <f t="shared" ref="H135" si="163">B135-B134</f>
+        <v>179</v>
+      </c>
+      <c r="I135">
+        <f t="shared" ref="I135" si="164">C135-C134</f>
+        <v>83</v>
+      </c>
+      <c r="J135">
+        <f t="shared" ref="J135" si="165">D135-D134</f>
+        <v>59</v>
+      </c>
+      <c r="K135">
+        <f t="shared" ref="K135" si="166">E135-E134</f>
+        <v>11</v>
+      </c>
+      <c r="L135">
+        <f t="shared" ref="L135" si="167">F135-F134</f>
+        <v>7</v>
+      </c>
+      <c r="N135">
+        <f t="shared" ref="N135" si="168">AVERAGE(H129:H135)</f>
+        <v>394.85714285714283</v>
+      </c>
+      <c r="O135">
+        <f t="shared" ref="O135" si="169">AVERAGE(I129:I135)</f>
+        <v>191</v>
+      </c>
+      <c r="P135">
+        <f t="shared" ref="P135" si="170">AVERAGE(J129:J135)</f>
+        <v>97.142857142857139</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" ref="Q135" si="171">AVERAGE(K129:K135)</f>
+        <v>29.285714285714285</v>
+      </c>
+      <c r="R135">
+        <f t="shared" ref="R135" si="172">AVERAGE(L129:L135)</f>
+        <v>37.285714285714285</v>
+      </c>
+      <c r="T135">
+        <f t="shared" ref="T135" si="173">N135*100000/655057</f>
+        <v>60.278287669186476</v>
+      </c>
+      <c r="U135">
+        <f t="shared" ref="U135" si="174">O135*100000/401190</f>
+        <v>47.608365113786483</v>
+      </c>
+      <c r="V135">
+        <f t="shared" ref="V135" si="175">P135*100000/110198</f>
+        <v>88.15301288848903</v>
+      </c>
+      <c r="W135">
+        <f t="shared" ref="W135" si="176">Q135*100000/36957</f>
+        <v>79.242671985589439</v>
+      </c>
+      <c r="X135">
+        <f t="shared" ref="X135" si="177">R135*100000/50299</f>
+        <v>74.128142280590637</v>
       </c>
     </row>
   </sheetData>
